--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemin\Desktop\workspace\Seminar Chuyên Đề\Hill Climbing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875D0D14-33F2-42C7-9AAA-9CC360F9DB1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739420FC-307B-4D92-A6EE-034AA7A6B325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="-180" windowWidth="21600" windowHeight="11505" xr2:uid="{244678BA-C173-4A3F-A471-5FEE0B1AAED3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{244678BA-C173-4A3F-A471-5FEE0B1AAED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Stt</t>
   </si>
@@ -130,13 +130,25 @@
   </si>
   <si>
     <t>Kết quả của web</t>
+  </si>
+  <si>
+    <t>xql662</t>
+  </si>
+  <si>
+    <t>pbm436</t>
+  </si>
+  <si>
+    <t>pbn423</t>
+  </si>
+  <si>
+    <t>pbk411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,11 +163,29 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Hack"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Hack"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Hack"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -178,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,29 +217,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -218,26 +235,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,529 +573,655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E73172C-6390-4DD4-B004-29EB17F7F902}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="1" max="6" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>19</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>19</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>291</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>291</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>291</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>2085</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>2085</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>2085</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>26</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>937</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>937</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>953</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6">
         <v>2020</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="8">
         <v>2033</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>42</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>699</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8">
         <v>734</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>48</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>33523</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>33522</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>34758</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>51</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>426</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>426</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>443</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>52</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>7542</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>70</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>675</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>675</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
         <v>722</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>76</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>538</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>538</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>585</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>76</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>108159</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>108159</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <v>118773</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>100</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>21282</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>21282</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="8">
         <v>22747</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>100</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>20749</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>20749</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <v>22587</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="G15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>100</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>21294</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>21294</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="8">
         <v>23165</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
         <v>101</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>629</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>629</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <v>698</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>105</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>14379</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>14379</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="8">
         <v>15774</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>127</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2">
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8">
         <v>133682</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>130</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>6110</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>6110</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="8">
         <v>6860</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="G20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>150</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>6461</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="10">
         <v>6528</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="8">
         <v>7614</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="G21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>198</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="8">
         <v>17292</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <v>200</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="8">
         <v>34130</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>280</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>2579</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2">
+      <c r="E24" s="5"/>
+      <c r="F24" s="8">
         <v>3211</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>532</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2">
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8">
         <v>111226</v>
       </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D28" s="5">
-        <v>16</v>
-      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5">
+        <v>131</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2513</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3569</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5">
+        <v>436</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1443</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1878</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5">
+        <v>423</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1365</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1777</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5">
+        <v>411</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1343</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1745</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G25">
